--- a/src/test/resources/testdata/TestExecution.xlsx
+++ b/src/test/resources/testdata/TestExecution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Library\I - Jan - March Automation\HybridFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A740F89-CA59-4B03-964C-1507E82187A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E023D71-50EB-45F8-9C6E-572C307BD374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="316">
   <si>
     <t>Project Name</t>
   </si>
@@ -2632,13 +2632,88 @@
   </si>
   <si>
     <t>lethu@testautomation.co.za</t>
+  </si>
+  <si>
+    <t>//div[@id='firstname-error']</t>
+  </si>
+  <si>
+    <t>Nakith</t>
+  </si>
+  <si>
+    <t>Nuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuukithi</t>
+  </si>
+  <si>
+    <t>Mvuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuulo</t>
+  </si>
+  <si>
+    <t>_-q._.p-6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>VerifyPageUsabilityValidBlankFieldsTest</t>
+  </si>
+  <si>
+    <t>VerifyPageUsabilityPasswordMisMatchValidTest</t>
+  </si>
+  <si>
+    <t>VerifyPageUsabilityWeakPasswordValidTest</t>
+  </si>
+  <si>
+    <t>VerifyUsabilityWeakConfirmPasswordValidTest</t>
+  </si>
+  <si>
+    <t>VerifyUsabilityFieldRangeValidTest</t>
+  </si>
+  <si>
+    <t>lethu@testauuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuutomation.co.za</t>
+  </si>
+  <si>
+    <t>_-q._.p-7uuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>firstname-error</t>
+  </si>
+  <si>
+    <t>lastname-error</t>
+  </si>
+  <si>
+    <t>email-error</t>
+  </si>
+  <si>
+    <t>confirmpassword-error</t>
+  </si>
+  <si>
+    <t>//div[@id='password-confirmation-error']</t>
+  </si>
+  <si>
+    <t>//div[@id='password-strength-meter']</t>
+  </si>
+  <si>
+    <t>//div[@id='email_address-error']</t>
+  </si>
+  <si>
+    <t>//div[@id='lastname-error']</t>
+  </si>
+  <si>
+    <t>password-error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2767,6 +2842,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3168,7 +3250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -3353,6 +3435,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3606,11 +3707,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3916,194 +4013,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="102"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="103"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="110"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="102"/>
-      <c r="C3" s="93"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="100"/>
       <c r="W3" s="20"/>
       <c r="X3" s="30"/>
     </row>
     <row r="4" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="102"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="104" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="106"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="113"/>
       <c r="W4" s="20"/>
       <c r="X4" s="30"/>
     </row>
     <row r="5" spans="2:24" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="110" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="89"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="20"/>
       <c r="X5" s="30"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="102"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="102"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="109"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="V6" s="103"/>
+      <c r="V6" s="110"/>
     </row>
     <row r="7" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="102"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="111" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="103"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="110"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="102"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="90"/>
-      <c r="V8" s="92"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="97"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="20"/>
       <c r="X8" s="30"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="109"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="116"/>
       <c r="V9" s="24"/>
       <c r="W9" s="20"/>
       <c r="X9" s="30"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="102"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="25"/>
       <c r="V10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="30"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="102"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="25"/>
       <c r="M11" s="1" t="s">
         <v>73</v>
@@ -4116,8 +4213,8 @@
       <c r="X11" s="30"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="102"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="25"/>
       <c r="M12" s="1" t="s">
         <v>74</v>
@@ -4130,8 +4227,8 @@
       <c r="X12" s="30"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="102"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="25"/>
       <c r="M13" s="1" t="s">
         <v>75</v>
@@ -4144,8 +4241,8 @@
       <c r="X13" s="30"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="102"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="25"/>
       <c r="M14" s="1" t="s">
         <v>76</v>
@@ -4156,8 +4253,8 @@
       <c r="X14" s="30"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="25"/>
       <c r="M15" s="6" t="s">
         <v>77</v>
@@ -4168,51 +4265,51 @@
       <c r="X15" s="30"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="25"/>
       <c r="V16" s="26"/>
       <c r="W16" s="20"/>
       <c r="X16" s="30"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="96"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="103"/>
       <c r="W17" s="20"/>
       <c r="X17" s="30"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="102"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="25"/>
       <c r="V18" s="26"/>
       <c r="W18" s="20"/>
       <c r="X18" s="30"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="102"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="25"/>
       <c r="F19" s="1" t="s">
         <v>81</v>
@@ -4237,8 +4334,8 @@
       <c r="X19" s="30"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="25"/>
       <c r="F20" s="1" t="s">
         <v>82</v>
@@ -4257,8 +4354,8 @@
       <c r="X20" s="30"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="102"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="25"/>
       <c r="F21" s="21" t="s">
         <v>83</v>
@@ -4283,8 +4380,8 @@
       <c r="X21" s="30"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="102"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="25"/>
       <c r="F22" s="1" t="s">
         <v>76</v>
@@ -4303,8 +4400,8 @@
       <c r="X22" s="30"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="25"/>
       <c r="F23" s="6" t="s">
         <v>77</v>
@@ -4323,16 +4420,16 @@
       <c r="X23" s="30"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="25"/>
       <c r="V24" s="26"/>
       <c r="W24" s="20"/>
       <c r="X24" s="30"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="27"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -4356,52 +4453,52 @@
       <c r="X25" s="30"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
       <c r="W26" s="20"/>
       <c r="X26" s="30"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
       <c r="W27" s="31"/>
       <c r="X27" s="32"/>
     </row>
@@ -4432,131 +4529,131 @@
     </row>
     <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
-      <c r="G29" s="94" t="s">
+      <c r="G29" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="103"/>
       <c r="X29" s="26"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="98" t="s">
+      <c r="G30" s="94"/>
+      <c r="H30" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="M30" s="97" t="s">
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="M30" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="98" t="s">
+      <c r="N30" s="104"/>
+      <c r="O30" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="89"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="96"/>
       <c r="X30" s="26"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="25"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="103"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="110"/>
       <c r="X31" s="26"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="103"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="110"/>
       <c r="X32" s="26"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="103"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="110"/>
       <c r="X33" s="26"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="25"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="92"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="99"/>
       <c r="X34" s="26"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="101"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="108"/>
       <c r="X35" s="26"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
@@ -4565,73 +4662,73 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="25"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="89"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="96"/>
       <c r="X37" s="26"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="86"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="93"/>
       <c r="V38" s="26"/>
       <c r="X38" s="26"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="25"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="92"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="98"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="98"/>
+      <c r="U39" s="98"/>
+      <c r="V39" s="99"/>
       <c r="X39" s="26"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
@@ -4772,19 +4869,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5261,8 +5358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60A778-2A5D-4CCB-968B-7363B04FA1F7}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,17 +5412,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="174" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
       <c r="J2" s="8"/>
       <c r="K2" s="7"/>
     </row>
@@ -5745,19 +5842,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
@@ -6019,7 +6116,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" location="'User Details Usability'!A1" display="Registration &amp; Login - Usability Checklist" xr:uid="{3CD879B6-DA4C-4CA8-BF76-EAF867966A62}"/>
-    <hyperlink ref="A2:K2" location="'Register Test Scenarios'!A1" display="Test sceanrios" xr:uid="{4BD8A3C2-A963-4F3C-9F41-68DDAC13EA3C}"/>
+    <hyperlink ref="A2:K2" location="'Test Scenarios'!A1" display="Test sceanrios" xr:uid="{4BD8A3C2-A963-4F3C-9F41-68DDAC13EA3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6085,19 +6182,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6238,19 +6335,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6390,19 +6487,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6542,19 +6639,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6696,19 +6793,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6850,19 +6947,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -7005,19 +7102,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="170"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -7125,47 +7222,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="126"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="133"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -7174,225 +7271,225 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="129"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="136"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="132"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="119" t="s">
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="120"/>
+      <c r="K10" s="127"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
-      <c r="G11" s="133" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
+      <c r="G11" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="114"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="114"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="114"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="114"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="114"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="119" t="s">
+      <c r="E18" s="127"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="138"/>
+      <c r="K18" s="145"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="142"/>
-      <c r="G19" s="121" t="s">
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="149"/>
+      <c r="G19" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="135"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
@@ -7404,7 +7501,7 @@
       <c r="C20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="115"/>
+      <c r="E20" s="122"/>
       <c r="G20" s="41" t="s">
         <v>110</v>
       </c>
@@ -7414,7 +7511,7 @@
       <c r="I20" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="114"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7426,7 +7523,7 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="122"/>
       <c r="G21" t="s">
         <v>111</v>
       </c>
@@ -7436,7 +7533,7 @@
       <c r="I21" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="114"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
@@ -7448,7 +7545,7 @@
       <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="115"/>
+      <c r="E22" s="122"/>
       <c r="G22" s="25" t="s">
         <v>109</v>
       </c>
@@ -7458,7 +7555,7 @@
       <c r="I22" t="s">
         <v>116</v>
       </c>
-      <c r="K22" s="114"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
@@ -7470,7 +7567,7 @@
       <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="122"/>
       <c r="G23" s="25" t="s">
         <v>113</v>
       </c>
@@ -7480,7 +7577,7 @@
       <c r="I23" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="114"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
@@ -7491,7 +7588,7 @@
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="122"/>
       <c r="G24" s="27" t="s">
         <v>122</v>
       </c>
@@ -7500,37 +7597,37 @@
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="114"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="119" t="s">
+      <c r="E26" s="144"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="145"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="G27" s="121" t="s">
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="G27" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
@@ -7542,7 +7639,7 @@
       <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="119"/>
       <c r="G28" s="41" t="s">
         <v>110</v>
       </c>
@@ -7552,7 +7649,7 @@
       <c r="I28" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="114"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -7564,7 +7661,7 @@
       <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E29" s="119"/>
       <c r="G29" t="s">
         <v>111</v>
       </c>
@@ -7574,7 +7671,7 @@
       <c r="I29" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="114"/>
+      <c r="K29" s="121"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -7586,7 +7683,7 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="112"/>
+      <c r="E30" s="119"/>
       <c r="G30" s="25" t="s">
         <v>109</v>
       </c>
@@ -7596,7 +7693,7 @@
       <c r="I30" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="114"/>
+      <c r="K30" s="121"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
@@ -7608,7 +7705,7 @@
       <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="112"/>
+      <c r="E31" s="119"/>
       <c r="G31" s="25" t="s">
         <v>113</v>
       </c>
@@ -7618,7 +7715,7 @@
       <c r="I31" t="s">
         <v>115</v>
       </c>
-      <c r="K31" s="114"/>
+      <c r="K31" s="121"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
@@ -7629,7 +7726,7 @@
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="113"/>
+      <c r="E32" s="120"/>
       <c r="G32" s="27" t="s">
         <v>122</v>
       </c>
@@ -7638,7 +7735,7 @@
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="114"/>
+      <c r="K32" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -7697,118 +7794,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="151"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
     </row>
     <row r="2" spans="2:26" s="19" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
     </row>
     <row r="3" spans="2:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
     </row>
     <row r="4" spans="2:26" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="160"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="167"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
@@ -7949,60 +8046,60 @@
       <c r="Z11" s="40"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="145"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="152"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="146"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="148"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="155"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
@@ -8143,60 +8240,60 @@
       <c r="Z20" s="40"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="145"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="152"/>
     </row>
     <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="148"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="155"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -8530,7 +8627,7 @@
       <c r="D10" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="85" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8541,29 +8638,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332D551-BFDC-4D6A-9D91-6841C7A71890}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="90" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="89" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8575,19 +8672,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="3"/>
       <c r="E3" s="82" t="s">
         <v>275</v>
@@ -8595,85 +8692,85 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="87" t="s">
         <v>266</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>288</v>
+      <c r="E4" s="82" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="87" t="s">
         <v>267</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="87" t="s">
         <v>276</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>290</v>
+      <c r="E6" s="178" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="87" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="87" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="87" t="s">
         <v>273</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -8685,155 +8782,900 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>282</v>
+      <c r="C10" s="87" t="s">
+        <v>304</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="83"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="82" t="s">
-        <v>275</v>
+      <c r="B12" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>266</v>
+      <c r="B13" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>312</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>288</v>
+      <c r="E13" s="83" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>267</v>
+      <c r="B14" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>289</v>
+      <c r="E14" s="83" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>287</v>
+      <c r="B16" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="82" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>274</v>
+      <c r="C17" s="87" t="s">
+        <v>266</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>287</v>
+      <c r="E17" s="82" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>273</v>
+      <c r="B18" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>267</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C23" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="87"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="87"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="83"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="45"/>
+      <c r="B72" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D72" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E72" s="83" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{5E58ABFA-7F07-45A9-BD5A-8D518C2E12CB}"/>
-    <hyperlink ref="E15" r:id="rId2" xr:uid="{7CD0E5F5-D8AB-4D8A-8528-5FFABE73A259}"/>
+    <hyperlink ref="E68" r:id="rId1" xr:uid="{7CD0E5F5-D8AB-4D8A-8528-5FFABE73A259}"/>
+    <hyperlink ref="E59" r:id="rId2" xr:uid="{5E58ABFA-7F07-45A9-BD5A-8D518C2E12CB}"/>
+    <hyperlink ref="E19" r:id="rId3" xr:uid="{B6BA1F80-62B9-48D0-9A9B-1E400DC57C24}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{83689B93-41E7-4BD6-8881-CE6DFB843209}"/>
+    <hyperlink ref="E37" r:id="rId5" xr:uid="{487FE0CE-DEE4-4C4F-A3C9-4F082335178B}"/>
+    <hyperlink ref="E46" r:id="rId6" display="lethu@testauuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuutomation.co.za" xr:uid="{186E6E9F-40A0-4A6C-9F33-8B67F5F20254}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9283,7 +10125,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9313,13 +10155,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="171" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
@@ -9367,13 +10209,13 @@
       <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
@@ -9482,13 +10324,13 @@
       <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="168" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="170"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
@@ -9716,7 +10558,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9769,18 +10611,18 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">

--- a/src/test/resources/testdata/TestExecution.xlsx
+++ b/src/test/resources/testdata/TestExecution.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Library\I - Jan - March Automation\HybridFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF83F71-E0B1-4AD9-B7B7-822B3671844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37A112-5C9F-41B3-8631-2BA051B9E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="6" r:id="rId1"/>
-    <sheet name="Checklist" sheetId="1" r:id="rId2"/>
-    <sheet name="Test Scenarios" sheetId="10" r:id="rId3"/>
-    <sheet name="RegisterUserUsability Manual TC" sheetId="20" r:id="rId4"/>
-    <sheet name="Register User Manual TCS" sheetId="19" r:id="rId5"/>
-    <sheet name="VerifyRegisterUserValidTest" sheetId="5" r:id="rId6"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenarios" sheetId="10" r:id="rId2"/>
+    <sheet name="RegisterUserUsability Manual TC" sheetId="20" r:id="rId3"/>
+    <sheet name="Register User Manual TCS" sheetId="19" r:id="rId4"/>
+    <sheet name="VerifyRegisterUserValidTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="240">
   <si>
     <t>Project Name</t>
   </si>
@@ -132,326 +131,6 @@
   </si>
   <si>
     <t>Testcase</t>
-  </si>
-  <si>
-    <t>PS Sibisi</t>
-  </si>
-  <si>
-    <t>v1.0.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Project Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prepered By</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Version No.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GitHub Repo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Branches</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Branch Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Allocation</t>
-  </si>
-  <si>
-    <t>test object (OneNote)</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>CI/CD Tracking</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
-    <r>
-      <t>In the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ISTQB-CTFL v4.0 Syllabus, Sub-Section 5.1.2 of Sub-section 5.1 of Section 5. Managing the Test Activities, ... , 5.1.2 Tester's Contribution to Iteration and Release Planning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> states that, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In iterative SDLCs, typically two kinds of planning occur: release planning and iteration planning. Release planning looks ahead to the release of a product, defines, and re-defines the product backlog, and may involve refining larger user stories into a set of smaller user stories. It also serves as the basis for the test approach and test plan across all iterations. </t>
-    </r>
-  </si>
-  <si>
-    <t>Agile Tester</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISTQB Certification</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, In the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ISTQB-CTAL-ATT Syllabus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sub-Section 4.1.2 of Sub-section 4.1 of Section 4 Deployment and Delivery, ... , 4.1.2 The role of continuous testing in continuous delivery &amp; deployment (CD)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is described as, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Continuous testing is an approach that involves a process of testing early, testing often, test everywhere, and automate to obtain feedback on the business risks associated with a software release candidate as rapidly as possible. In continuous testing, a modification made to the system triggers the required tests (i.e., those tests that cover the change) to be executed automatically, giving the developer prompt feedback. Continuous testing can be applied in different situations (e.g., in the IDE, in CI, in continuous delivery and continuous deployment, etc.), however the concept is the same, i.e., to automatically execute tests as early as possible.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Tests</t>
@@ -2550,7 +2229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2605,24 +2284,8 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2632,14 +2295,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2686,7 +2341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2696,12 +2351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,7 +2639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -3011,25 +2660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3037,50 +2668,50 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3101,15 +2732,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3120,69 +2748,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3220,19 +2823,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3253,37 +2844,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3292,29 +2877,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3601,824 +3171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E9AF2-D71E-422B-A2A1-D7203D516913}">
-  <dimension ref="B1:X41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="19"/>
-    </row>
-    <row r="4" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="19"/>
-    </row>
-    <row r="5" spans="2:24" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="19"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="57"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="V6" s="59"/>
-    </row>
-    <row r="7" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="59"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="60"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="19"/>
-    </row>
-    <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="19"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="14"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="19"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="14"/>
-      <c r="M11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="19"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="14"/>
-      <c r="M12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="19"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="14"/>
-      <c r="M13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="14"/>
-      <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="19"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="14"/>
-      <c r="M15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="19"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="14"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="19"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="14"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="19"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="19"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="14"/>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="M20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="S20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="2"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="19"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="14"/>
-      <c r="F21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="19"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="14"/>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="M22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="S22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="19"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="M23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="S23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="19"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="14"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="19"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="19"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="19"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="21"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="13"/>
-    </row>
-    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="G29" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="70"/>
-      <c r="X29" s="15"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="M30" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="N30" s="71"/>
-      <c r="O30" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="56"/>
-      <c r="X30" s="15"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="59"/>
-      <c r="X31" s="15"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="59"/>
-      <c r="X32" s="15"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="59"/>
-      <c r="X33" s="15"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="67"/>
-      <c r="X34" s="15"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="75"/>
-      <c r="X35" s="15"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="X36" s="15"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="56"/>
-      <c r="X37" s="15"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="15"/>
-      <c r="X38" s="15"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="67"/>
-      <c r="X39" s="15"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="X40" s="15"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E38:U38"/>
-    <mergeCell ref="D37:V37"/>
-    <mergeCell ref="D39:V39"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="G29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="G35:T35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="T30:T34"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="B1:X2"/>
-    <mergeCell ref="B3:C27"/>
-    <mergeCell ref="D26:V27"/>
-    <mergeCell ref="E9:U9"/>
-    <mergeCell ref="E5:U5"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="V5:V8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="N11" r:id="rId1" display="saucedemo site" xr:uid="{BAA3DF4A-0BB6-4312-8246-5747FEED4E1F}"/>
-    <hyperlink ref="N12" r:id="rId2" xr:uid="{D56CB287-E198-4CC5-B03B-8B2BDEB43242}"/>
-    <hyperlink ref="N19" r:id="rId3" display="saucedemo site" xr:uid="{B8721BC7-A629-4748-A72D-5B69F0601334}"/>
-    <hyperlink ref="T19" r:id="rId4" display="saucedemo site" xr:uid="{905BA528-ECB1-4BD1-8326-FD1FF55BCF7F}"/>
-    <hyperlink ref="G19" r:id="rId5" display="saucedemo site" xr:uid="{473FD4B8-42B1-48FE-B5EC-7CA28D4DC0F2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4430,7 +3187,7 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="46.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
@@ -4439,48 +3196,48 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -4489,487 +3246,540 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="94"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="G11" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
+      <c r="A11" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="G11" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="104"/>
+      <c r="B12" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="104"/>
+        <v>42</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="104"/>
+        <v>43</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="104"/>
+        <v>44</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="G16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="104"/>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="94"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="K18" s="97"/>
+      <c r="D18" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="75"/>
+      <c r="G19" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="101"/>
-      <c r="G19" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="105"/>
-      <c r="G20" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="104"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="105"/>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="104"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="105"/>
-      <c r="G22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="104"/>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="105"/>
-      <c r="G23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="104"/>
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="105"/>
-      <c r="G24" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="104"/>
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="G24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="96"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="93" t="s">
-        <v>259</v>
-      </c>
-      <c r="K26" s="97"/>
+      <c r="D26" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="109"/>
-      <c r="G27" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
+      <c r="A27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="G27" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="G28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="104"/>
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="G28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="102"/>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="104"/>
+      <c r="A29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="G29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="102"/>
-      <c r="G30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="104"/>
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="G30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="102"/>
-      <c r="G31" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="104"/>
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="G31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="103"/>
-      <c r="G32" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="104"/>
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="G32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="G12:J16"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A27:E27"/>
+  <mergeCells count="48">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="C1:K8"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G19:K19"/>
@@ -4986,18 +3796,29 @@
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A9:K9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" location="'RegisterLogin Test-scenarios'!A1" display="RegisterLogin Test scenarios" xr:uid="{4B06BEB1-FBAF-450E-A2CC-A97D5615F251}"/>
     <hyperlink ref="A20" location="'RegisterLogin Test-scenarios'!A1" display="RegisterLogin Test scenarios" xr:uid="{4B48107B-C526-4834-A560-20B373B65AB8}"/>
     <hyperlink ref="G20" location="'RegisterLogin Test-scenarios'!A1" display="RegisterLogin Test scenarios" xr:uid="{505ACB2D-61E8-4C13-9EE5-93D66051D889}"/>
     <hyperlink ref="G28" location="'RegisterLogin Test-scenarios'!A1" display="RegisterLogin Test scenarios" xr:uid="{E0DEA4D2-7824-4B3A-9307-DC819EC053CF}"/>
+    <hyperlink ref="G12" location="'RegisterLogin Test-scenarios'!A1" display="RegisterLogin Test scenarios" xr:uid="{1801C37A-0B08-4373-AF36-A2A0723818EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D687D433-C5EB-48A8-BF87-95EF74E2B209}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -5036,354 +3857,354 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
+      <c r="A2" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
+      <c r="A3" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="D16" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="117" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="D18" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="D19" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="D20" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="9"/>
@@ -5656,7 +4477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60A778-2A5D-4CCB-968B-7363B04FA1F7}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5690,16 +4511,16 @@
         <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>23</v>
@@ -5708,363 +4529,363 @@
         <v>10</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="8"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="H7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="D12" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="285" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="38" t="s">
-        <v>126</v>
+      <c r="H13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="26" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6083,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4FB4DD-7453-4AA9-AA1D-51F315DE6338}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -6120,10 +4941,10 @@
         <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>21</v>
@@ -6132,7 +4953,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>23</v>
@@ -6142,51 +4963,51 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="A2" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="26" t="s">
-        <v>126</v>
+      <c r="A3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +5022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332D551-BFDC-4D6A-9D91-6841C7A71890}">
   <dimension ref="A1:E73"/>
   <sheetViews>
@@ -6212,8 +5033,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6222,10 +5043,10 @@
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6237,1001 +5058,1001 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+        <v>228</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="42" t="s">
-        <v>207</v>
+      <c r="E3" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>201</v>
+      <c r="C4" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>236</v>
+        <v>184</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>202</v>
+      <c r="C5" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>208</v>
+      <c r="C6" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>237</v>
+        <v>184</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>206</v>
+      <c r="C8" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>205</v>
+      <c r="C9" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>227</v>
+      <c r="B10" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>219</v>
+        <v>184</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>228</v>
+      <c r="B11" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>234</v>
+        <v>184</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>229</v>
+      <c r="B12" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>233</v>
+        <v>184</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>230</v>
+      <c r="B14" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>231</v>
+        <v>184</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+        <v>227</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="42" t="s">
-        <v>207</v>
+      <c r="E16" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>201</v>
+      <c r="C17" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>220</v>
+        <v>184</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>202</v>
+      <c r="C18" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>208</v>
+      <c r="C19" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>206</v>
+      <c r="C21" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>205</v>
+      <c r="C22" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>230</v>
+      <c r="B23" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>231</v>
+        <v>184</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+        <v>226</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="42" t="s">
-        <v>207</v>
+      <c r="E25" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>201</v>
+      <c r="C26" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>216</v>
+        <v>184</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>202</v>
+      <c r="C27" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>208</v>
+      <c r="C28" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>206</v>
+      <c r="C30" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>205</v>
+      <c r="C31" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+        <v>225</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="42" t="s">
-        <v>207</v>
+      <c r="E34" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="46" t="s">
-        <v>201</v>
+      <c r="C35" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>216</v>
+        <v>184</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>202</v>
+      <c r="C36" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>208</v>
+      <c r="C37" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>206</v>
+      <c r="C39" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>205</v>
+      <c r="C40" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>230</v>
+      <c r="B41" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>231</v>
+        <v>184</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+        <v>224</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="42" t="s">
-        <v>207</v>
+      <c r="E43" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="33" t="s">
         <v>201</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>208</v>
+      <c r="C46" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>225</v>
+        <v>184</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>226</v>
+        <v>184</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>205</v>
+      <c r="C49" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>227</v>
+      <c r="B50" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>219</v>
+        <v>184</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>228</v>
+      <c r="B51" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>234</v>
+        <v>184</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>229</v>
+      <c r="B52" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>233</v>
+        <v>184</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>230</v>
+      <c r="B54" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>231</v>
+        <v>184</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
+        <v>183</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="46"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="42" t="s">
-        <v>207</v>
+      <c r="E56" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="46" t="s">
-        <v>201</v>
+      <c r="C57" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="46" t="s">
-        <v>202</v>
+      <c r="C58" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="46" t="s">
-        <v>208</v>
+      <c r="C59" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="46" t="s">
-        <v>206</v>
+      <c r="C61" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="46" t="s">
-        <v>205</v>
+      <c r="C62" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>214</v>
+      <c r="B63" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
+        <v>190</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="43"/>
+      <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="46"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="42" t="s">
-        <v>207</v>
+      <c r="E65" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="46" t="s">
-        <v>201</v>
+      <c r="C66" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="46" t="s">
-        <v>202</v>
+      <c r="C67" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="46" t="s">
-        <v>208</v>
+      <c r="C68" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="46" t="s">
-        <v>206</v>
+      <c r="C70" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="46" t="s">
-        <v>205</v>
+      <c r="C71" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>211</v>
+      <c r="A72" s="12"/>
+      <c r="B72" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="44"/>
+      <c r="E73" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
